--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2577,28 +2577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.7012911755336</v>
+        <v>314.2881825251192</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.9631579026783</v>
+        <v>430.0229567469102</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.7000073940874</v>
+        <v>388.9821692959948</v>
       </c>
       <c r="AD2" t="n">
-        <v>277701.2911755337</v>
+        <v>314288.1825251192</v>
       </c>
       <c r="AE2" t="n">
-        <v>379963.1579026784</v>
+        <v>430022.9567469102</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.121743113638446e-06</v>
+        <v>3.925780263193525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>343700.0073940874</v>
+        <v>388982.1692959947</v>
       </c>
     </row>
     <row r="3">
@@ -2683,28 +2683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.0338818364456</v>
+        <v>202.4251725723527</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.5938114290518</v>
+        <v>276.9670514817054</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.3455599523953</v>
+        <v>250.5337048140708</v>
       </c>
       <c r="AD3" t="n">
-        <v>178033.8818364456</v>
+        <v>202425.1725723527</v>
       </c>
       <c r="AE3" t="n">
-        <v>243593.8114290518</v>
+        <v>276967.0514817054</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.91161975792365e-06</v>
+        <v>5.387258856223986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.219907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>220345.5599523954</v>
+        <v>250533.7048140708</v>
       </c>
     </row>
     <row r="4">
@@ -2789,28 +2789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.4195493420656</v>
+        <v>183.921010328528</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.7059311012336</v>
+        <v>251.6488403536937</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.4554001330415</v>
+        <v>227.6318282217761</v>
       </c>
       <c r="AD4" t="n">
-        <v>147419.5493420656</v>
+        <v>183921.010328528</v>
       </c>
       <c r="AE4" t="n">
-        <v>201705.9311012336</v>
+        <v>251648.8403536937</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.222581168217048e-06</v>
+        <v>5.962618879450938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.716435185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>182455.4001330415</v>
+        <v>227631.8282217761</v>
       </c>
     </row>
     <row r="5">
@@ -2895,28 +2895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.9755238063504</v>
+        <v>162.2814736876859</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.7841987222731</v>
+        <v>222.0406716527289</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.7668997565595</v>
+        <v>200.8494215862962</v>
       </c>
       <c r="AD5" t="n">
-        <v>137975.5238063504</v>
+        <v>162281.4736876859</v>
       </c>
       <c r="AE5" t="n">
-        <v>188784.1987222731</v>
+        <v>222040.6716527289</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.390272399945948e-06</v>
+        <v>6.272891562133536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.482060185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>170766.8997565595</v>
+        <v>200849.4215862962</v>
       </c>
     </row>
     <row r="6">
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>131.082380695787</v>
+        <v>155.3883305771224</v>
       </c>
       <c r="AB6" t="n">
-        <v>179.3526962143934</v>
+        <v>212.6091691448493</v>
       </c>
       <c r="AC6" t="n">
-        <v>162.235526610832</v>
+        <v>192.3180484405686</v>
       </c>
       <c r="AD6" t="n">
-        <v>131082.380695787</v>
+        <v>155388.3305771224</v>
       </c>
       <c r="AE6" t="n">
-        <v>179352.6962143934</v>
+        <v>212609.1691448493</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.499037993716869e-06</v>
+        <v>6.4741363870116e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.343171296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>162235.526610832</v>
+        <v>192318.0484405686</v>
       </c>
     </row>
     <row r="7">
@@ -3107,28 +3107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.1176135537182</v>
+        <v>153.4235634350537</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.6644151312075</v>
+        <v>209.9208880616634</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.8038113011983</v>
+        <v>189.886333130935</v>
       </c>
       <c r="AD7" t="n">
-        <v>129117.6135537182</v>
+        <v>153423.5634350537</v>
       </c>
       <c r="AE7" t="n">
-        <v>176664.4151312075</v>
+        <v>209920.8880616634</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.52314393651786e-06</v>
+        <v>6.518738692477091e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.314236111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>159803.8113011983</v>
+        <v>189886.333130935</v>
       </c>
     </row>
     <row r="8">
@@ -3213,28 +3213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>129.4323747701107</v>
+        <v>153.7383246514461</v>
       </c>
       <c r="AB8" t="n">
-        <v>177.0950853137603</v>
+        <v>210.3515582442162</v>
       </c>
       <c r="AC8" t="n">
-        <v>160.1933789259778</v>
+        <v>190.2759007557144</v>
       </c>
       <c r="AD8" t="n">
-        <v>129432.3747701107</v>
+        <v>153738.3246514461</v>
       </c>
       <c r="AE8" t="n">
-        <v>177095.0853137603</v>
+        <v>210351.5582442162</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.522513715791036e-06</v>
+        <v>6.517572619131587e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.314236111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>160193.3789259778</v>
+        <v>190275.9007557145</v>
       </c>
     </row>
   </sheetData>
@@ -3510,28 +3510,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.7761666028966</v>
+        <v>248.9820516550273</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.4979822848019</v>
+        <v>340.6682273871339</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.582385379123</v>
+        <v>308.1553298962674</v>
       </c>
       <c r="AD2" t="n">
-        <v>213776.1666028966</v>
+        <v>248982.0516550273</v>
       </c>
       <c r="AE2" t="n">
-        <v>292497.9822848019</v>
+        <v>340668.2273871339</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.509535953780367e-06</v>
+        <v>4.783562830608566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.264467592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>264582.385379123</v>
+        <v>308155.3298962674</v>
       </c>
     </row>
     <row r="3">
@@ -3616,28 +3616,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.9963135576767</v>
+        <v>176.2021091012563</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.9173765278738</v>
+        <v>241.0874991606574</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.5056128733466</v>
+        <v>218.0784466092643</v>
       </c>
       <c r="AD3" t="n">
-        <v>140996.3135576767</v>
+        <v>176202.1091012563</v>
       </c>
       <c r="AE3" t="n">
-        <v>192917.3765278738</v>
+        <v>241087.4991606574</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.25423100949398e-06</v>
+        <v>6.203066537372905e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.832175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>174505.6128733466</v>
+        <v>218078.4466092644</v>
       </c>
     </row>
     <row r="4">
@@ -3722,28 +3722,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.8953810433697</v>
+        <v>151.3375539627833</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.9921026894566</v>
+        <v>207.0667178734616</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.2911020117824</v>
+        <v>187.3045609396412</v>
       </c>
       <c r="AD4" t="n">
-        <v>127895.3810433696</v>
+        <v>151337.5539627832</v>
       </c>
       <c r="AE4" t="n">
-        <v>174992.1026894566</v>
+        <v>207066.7178734615</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.518489910128036e-06</v>
+        <v>6.706784785691409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.467592592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>158291.1020117824</v>
+        <v>187304.5609396412</v>
       </c>
     </row>
     <row r="5">
@@ -3828,28 +3828,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.060046908705</v>
+        <v>143.5022198281186</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.2714528558681</v>
+        <v>196.346068039873</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.5936159517815</v>
+        <v>177.6070748796404</v>
       </c>
       <c r="AD5" t="n">
-        <v>120060.046908705</v>
+        <v>143502.2198281186</v>
       </c>
       <c r="AE5" t="n">
-        <v>164271.4528558681</v>
+        <v>196346.068039873</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.66479937135491e-06</v>
+        <v>6.985673199079923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>148593.6159517815</v>
+        <v>177607.0748796404</v>
       </c>
     </row>
     <row r="6">
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.336166013669</v>
+        <v>143.7783389330825</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.6492511967947</v>
+        <v>196.7238663807996</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.9353577492935</v>
+        <v>177.9488166771524</v>
       </c>
       <c r="AD6" t="n">
-        <v>120336.166013669</v>
+        <v>143778.3389330825</v>
       </c>
       <c r="AE6" t="n">
-        <v>164649.2511967947</v>
+        <v>196723.8663807996</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.663549791849445e-06</v>
+        <v>6.983291307691904e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.291087962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>148935.3577492935</v>
+        <v>177948.8166771524</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.7122014485439</v>
+        <v>136.0171880675445</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.2718535981317</v>
+        <v>186.1047173687648</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.5981889740742</v>
+        <v>168.3431443427536</v>
       </c>
       <c r="AD2" t="n">
-        <v>104712.2014485439</v>
+        <v>136017.1880675445</v>
       </c>
       <c r="AE2" t="n">
-        <v>143271.8535981317</v>
+        <v>186104.7173687648</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.767408918850625e-06</v>
+        <v>8.023595055183177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.655671296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>129598.1889740742</v>
+        <v>168343.1443427536</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.87383997702814</v>
+        <v>119.7154736133891</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.2835498624781</v>
+        <v>163.7999924717161</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.3722777352941</v>
+        <v>148.167151084994</v>
       </c>
       <c r="AD3" t="n">
-        <v>98873.83997702814</v>
+        <v>119715.4736133891</v>
       </c>
       <c r="AE3" t="n">
-        <v>135283.5498624781</v>
+        <v>163799.992471716</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.961344634791072e-06</v>
+        <v>8.436627376590408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.427083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>122372.2777352941</v>
+        <v>148167.151084994</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.373083514012</v>
+        <v>164.3167651149634</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.8011339209346</v>
+        <v>224.8254471742493</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.2095871046843</v>
+        <v>203.3684220405006</v>
       </c>
       <c r="AD2" t="n">
-        <v>142373.083514012</v>
+        <v>164316.7651149634</v>
       </c>
       <c r="AE2" t="n">
-        <v>194801.1339209346</v>
+        <v>224825.4471742493</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.249857382743868e-06</v>
+        <v>6.598334065565079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.164930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>176209.5871046843</v>
+        <v>203368.4220405006</v>
       </c>
     </row>
     <row r="3">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.8217646909935</v>
+        <v>128.6801054373733</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.1582510938117</v>
+        <v>176.0657972249288</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.2091127438517</v>
+        <v>159.2623246477292</v>
       </c>
       <c r="AD3" t="n">
-        <v>106821.7646909935</v>
+        <v>128680.1054373733</v>
       </c>
       <c r="AE3" t="n">
-        <v>146158.2510938116</v>
+        <v>176065.7972249288</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.853431323713179e-06</v>
+        <v>7.823797840354685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.354745370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>132209.1127438517</v>
+        <v>159262.3246477292</v>
       </c>
     </row>
     <row r="4">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.4119092152992</v>
+        <v>128.270249961679</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.5974687504196</v>
+        <v>175.5050148815367</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.7018506802498</v>
+        <v>158.7550625841273</v>
       </c>
       <c r="AD4" t="n">
-        <v>106411.9092152992</v>
+        <v>128270.249961679</v>
       </c>
       <c r="AE4" t="n">
-        <v>145597.4687504196</v>
+        <v>175505.0148815367</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.875528150032898e-06</v>
+        <v>7.868662037356209e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.328703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>131701.8506802498</v>
+        <v>158755.0625841273</v>
       </c>
     </row>
   </sheetData>
@@ -5143,28 +5143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.24201563729252</v>
+        <v>113.4203330858509</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.5778393423012</v>
+        <v>155.1867034799432</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.4019894121278</v>
+        <v>140.3759023057662</v>
       </c>
       <c r="AD2" t="n">
-        <v>93242.01563729253</v>
+        <v>113420.3330858509</v>
       </c>
       <c r="AE2" t="n">
-        <v>127577.8393423012</v>
+        <v>155186.7034799432</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.964337838432764e-06</v>
+        <v>8.827806035702871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.594907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>115401.9894121278</v>
+        <v>140375.9023057662</v>
       </c>
     </row>
   </sheetData>
@@ -5440,28 +5440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.4600712519465</v>
+        <v>261.0065108887043</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.4844160831178</v>
+        <v>357.1206229925132</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.0430963728335</v>
+        <v>323.0375319560493</v>
       </c>
       <c r="AD2" t="n">
-        <v>225460.0712519465</v>
+        <v>261006.5108887043</v>
       </c>
       <c r="AE2" t="n">
-        <v>308484.4160831178</v>
+        <v>357120.6229925132</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.40719986147731e-06</v>
+        <v>4.551446041195203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.472800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>279043.0963728335</v>
+        <v>323037.5319560493</v>
       </c>
     </row>
     <row r="3">
@@ -5546,28 +5546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.2817995127031</v>
+        <v>182.8281496409065</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.5174557076063</v>
+        <v>250.1535401472799</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.2849125664551</v>
+        <v>226.2792373683949</v>
       </c>
       <c r="AD3" t="n">
-        <v>147281.7995127031</v>
+        <v>182828.1496409065</v>
       </c>
       <c r="AE3" t="n">
-        <v>201517.4557076063</v>
+        <v>250153.5401472799</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.159258007826258e-06</v>
+        <v>5.973410261003622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>182284.9125664551</v>
+        <v>226279.2373683949</v>
       </c>
     </row>
     <row r="4">
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.6454559142892</v>
+        <v>156.4852574240441</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.4913646863588</v>
+        <v>214.1100328498039</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.1700835654738</v>
+        <v>193.6756718199984</v>
       </c>
       <c r="AD4" t="n">
-        <v>132645.4559142892</v>
+        <v>156485.2574240441</v>
       </c>
       <c r="AE4" t="n">
-        <v>181491.3646863588</v>
+        <v>214110.0328498039</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.443971887973252e-06</v>
+        <v>6.511736921538194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.522569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>164170.0835654738</v>
+        <v>193675.6718199984</v>
       </c>
     </row>
     <row r="5">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.2813867649134</v>
+        <v>147.9505960740762</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.0472762795003</v>
+        <v>202.4325326680985</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.8182028942832</v>
+        <v>183.1126558661568</v>
       </c>
       <c r="AD5" t="n">
-        <v>124281.3867649134</v>
+        <v>147950.5960740762</v>
       </c>
       <c r="AE5" t="n">
-        <v>170047.2762795003</v>
+        <v>202432.5326680985</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.598497008249705e-06</v>
+        <v>6.803907404846483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.328703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>153818.2028942832</v>
+        <v>183112.6558661568</v>
       </c>
     </row>
     <row r="6">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.4621671096135</v>
+        <v>146.1313764187763</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.5581396888134</v>
+        <v>199.9433960774116</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.5666260062855</v>
+        <v>180.8610789781591</v>
       </c>
       <c r="AD6" t="n">
-        <v>122462.1671096135</v>
+        <v>146131.3764187763</v>
       </c>
       <c r="AE6" t="n">
-        <v>167558.1396888134</v>
+        <v>199943.3960774116</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.623264100698194e-06</v>
+        <v>6.850736123425511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.299768518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>151566.6260062855</v>
+        <v>180861.0789781591</v>
       </c>
     </row>
     <row r="7">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>122.7615123334023</v>
+        <v>146.430721642565</v>
       </c>
       <c r="AB7" t="n">
-        <v>167.9677170301802</v>
+        <v>200.3529734187784</v>
       </c>
       <c r="AC7" t="n">
-        <v>151.9371138610378</v>
+        <v>181.2315668329113</v>
       </c>
       <c r="AD7" t="n">
-        <v>122761.5123334023</v>
+        <v>146430.721642565</v>
       </c>
       <c r="AE7" t="n">
-        <v>167967.7170301802</v>
+        <v>200352.9734187784</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.622779527150289e-06</v>
+        <v>6.849819909366355e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.299768518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>151937.1138610378</v>
+        <v>181231.5668329113</v>
       </c>
     </row>
   </sheetData>
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.15866932250374</v>
+        <v>119.472095422328</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.3590688867702</v>
+        <v>163.4669916936185</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.5858524877898</v>
+        <v>147.8659314337885</v>
       </c>
       <c r="AD2" t="n">
-        <v>90158.66932250375</v>
+        <v>119472.095422328</v>
       </c>
       <c r="AE2" t="n">
-        <v>123359.0688867702</v>
+        <v>163466.9916936185</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.934411105264014e-06</v>
+        <v>9.01990007361542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>111585.8524877898</v>
+        <v>147865.9314337885</v>
       </c>
     </row>
   </sheetData>
@@ -6564,28 +6564,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.3029180757201</v>
+        <v>204.4887900756907</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.0159657455827</v>
+        <v>279.7905839901499</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.7772490148535</v>
+        <v>253.0877633427631</v>
       </c>
       <c r="AD2" t="n">
-        <v>170302.9180757201</v>
+        <v>204488.7900756907</v>
       </c>
       <c r="AE2" t="n">
-        <v>233015.9657455827</v>
+        <v>279790.5839901499</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.849695687392453e-06</v>
+        <v>5.585364164682373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.68287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>210777.2490148535</v>
+        <v>253087.7633427631</v>
       </c>
     </row>
     <row r="3">
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.4278723701359</v>
+        <v>147.3037945580212</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.2477043470544</v>
+        <v>201.5475502989635</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.9995023883725</v>
+        <v>182.3121349722511</v>
       </c>
       <c r="AD3" t="n">
-        <v>124427.8723701359</v>
+        <v>147303.7945580212</v>
       </c>
       <c r="AE3" t="n">
-        <v>170247.7043470544</v>
+        <v>201547.5502989635</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.526728615538984e-06</v>
+        <v>6.912339347299067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.592013888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>153999.5023883726</v>
+        <v>182312.1349722511</v>
       </c>
     </row>
     <row r="4">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.4353771668775</v>
+        <v>136.1407071541706</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.2072874553018</v>
+        <v>186.2737216323641</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.3945217754064</v>
+        <v>168.496019076634</v>
       </c>
       <c r="AD4" t="n">
-        <v>113435.3771668775</v>
+        <v>136140.7071541706</v>
       </c>
       <c r="AE4" t="n">
-        <v>155207.2874553018</v>
+        <v>186273.7216323641</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.768378152604596e-06</v>
+        <v>7.385969100366969e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>140394.5217754064</v>
+        <v>168496.019076634</v>
       </c>
     </row>
     <row r="5">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.6393837028755</v>
+        <v>136.3447136901687</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.4864181979874</v>
+        <v>186.5528523750497</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.6470126717726</v>
+        <v>168.7485099730002</v>
       </c>
       <c r="AD5" t="n">
-        <v>113639.3837028756</v>
+        <v>136344.7136901687</v>
       </c>
       <c r="AE5" t="n">
-        <v>155486.4181979874</v>
+        <v>186552.8523750497</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.766698864647225e-06</v>
+        <v>7.382677719178171e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.299768518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>140647.0126717726</v>
+        <v>168748.5099730002</v>
       </c>
     </row>
   </sheetData>
@@ -7179,28 +7179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.3879755761742</v>
+        <v>237.2403560281669</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.9161569105183</v>
+        <v>324.6027214234196</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.4876675493269</v>
+        <v>293.6230932736456</v>
       </c>
       <c r="AD2" t="n">
-        <v>202387.9755761742</v>
+        <v>237240.3560281669</v>
       </c>
       <c r="AE2" t="n">
-        <v>276916.1569105183</v>
+        <v>324602.7214234195</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.619699502696354e-06</v>
+        <v>5.036904305751554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.059027777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>250487.6675493269</v>
+        <v>293623.0932736456</v>
       </c>
     </row>
     <row r="3">
@@ -7285,28 +7285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.4031936526664</v>
+        <v>170.255484596108</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.2646231228072</v>
+        <v>232.9510651661599</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.5832275125502</v>
+        <v>210.7185424556423</v>
       </c>
       <c r="AD3" t="n">
-        <v>135403.1936526664</v>
+        <v>170255.484596108</v>
       </c>
       <c r="AE3" t="n">
-        <v>185264.6231228072</v>
+        <v>232951.0651661599</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.343770953227021e-06</v>
+        <v>6.429078714723229e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.74537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>167583.2275125502</v>
+        <v>210718.5424556423</v>
       </c>
     </row>
     <row r="4">
@@ -7391,28 +7391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.6269666348769</v>
+        <v>145.8334698208652</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.7836256697206</v>
+        <v>199.5357871274383</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.7705919216466</v>
+        <v>180.4923716542883</v>
       </c>
       <c r="AD4" t="n">
-        <v>122626.9666348769</v>
+        <v>145833.4698208652</v>
       </c>
       <c r="AE4" t="n">
-        <v>167783.6256697206</v>
+        <v>199535.7871274383</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.609442980675176e-06</v>
+        <v>6.939887140496504e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.398148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>151770.5919216466</v>
+        <v>180492.3716542883</v>
       </c>
     </row>
     <row r="5">
@@ -7497,28 +7497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.6254258948156</v>
+        <v>140.8319290808039</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.9402969767675</v>
+        <v>192.6924584344852</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.5803809144747</v>
+        <v>174.3021606471164</v>
       </c>
       <c r="AD5" t="n">
-        <v>117625.4258948156</v>
+        <v>140831.9290808039</v>
       </c>
       <c r="AE5" t="n">
-        <v>160940.2969767675</v>
+        <v>192692.4584344852</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.703338627040007e-06</v>
+        <v>7.120420589076985e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.285300925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>145580.3809144747</v>
+        <v>174302.1606471164</v>
       </c>
     </row>
     <row r="6">
@@ -7603,28 +7603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.9466336188817</v>
+        <v>141.15313680487</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.3797875555192</v>
+        <v>193.1319490132369</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.9779271292194</v>
+        <v>174.699706861861</v>
       </c>
       <c r="AD6" t="n">
-        <v>117946.6336188817</v>
+        <v>141153.13680487</v>
       </c>
       <c r="AE6" t="n">
-        <v>161379.7875555192</v>
+        <v>193131.9490132369</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.702954707925197e-06</v>
+        <v>7.119682426611994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.285300925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>145977.9271292193</v>
+        <v>174699.7068618611</v>
       </c>
     </row>
   </sheetData>
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.5368851760654</v>
+        <v>299.8229660789751</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.1638633219166</v>
+        <v>410.2310094449853</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.3173472435914</v>
+        <v>371.079137666393</v>
       </c>
       <c r="AD2" t="n">
-        <v>251536.8851760654</v>
+        <v>299822.9660789751</v>
       </c>
       <c r="AE2" t="n">
-        <v>344163.8633219165</v>
+        <v>410231.0094449852</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.210435702902638e-06</v>
+        <v>4.117874060863547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.929976851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>311317.3472435914</v>
+        <v>371079.137666393</v>
       </c>
     </row>
     <row r="3">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.2304673846518</v>
+        <v>195.4162677719416</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.2850796306498</v>
+        <v>267.3771587227309</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.9252404519427</v>
+        <v>241.8590579605109</v>
       </c>
       <c r="AD3" t="n">
-        <v>171230.4673846518</v>
+        <v>195416.2677719416</v>
       </c>
       <c r="AE3" t="n">
-        <v>234285.0796306498</v>
+        <v>267377.1587227309</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.997574212457405e-06</v>
+        <v>5.58425340252275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.109953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>211925.2404519427</v>
+        <v>241859.0579605109</v>
       </c>
     </row>
     <row r="4">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.5145594913851</v>
+        <v>178.7077849549216</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.9947075946559</v>
+        <v>244.5158754062575</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.3846863786682</v>
+        <v>221.1796234377418</v>
       </c>
       <c r="AD4" t="n">
-        <v>142514.5594913851</v>
+        <v>178707.7849549216</v>
       </c>
       <c r="AE4" t="n">
-        <v>194994.7075946559</v>
+        <v>244515.8754062575</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.295669373349389e-06</v>
+        <v>6.139582077812479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.64699074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>176384.6863786681</v>
+        <v>221179.6234377418</v>
       </c>
     </row>
     <row r="5">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.7067436164755</v>
+        <v>157.8072031491938</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.9434653411986</v>
+        <v>215.9187773110821</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.4835977718522</v>
+        <v>195.3117922484815</v>
       </c>
       <c r="AD5" t="n">
-        <v>133706.7436164755</v>
+        <v>157807.2031491938</v>
       </c>
       <c r="AE5" t="n">
-        <v>182943.4653411985</v>
+        <v>215918.7773110821</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.452737095311121e-06</v>
+        <v>6.432187330802112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.435763888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>165483.5977718522</v>
+        <v>195311.7922484815</v>
       </c>
     </row>
     <row r="6">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.7197107107319</v>
+        <v>150.8201702434501</v>
       </c>
       <c r="AB6" t="n">
-        <v>173.383498673428</v>
+        <v>206.3588106433115</v>
       </c>
       <c r="AC6" t="n">
-        <v>156.8360209053531</v>
+        <v>186.6642153819824</v>
       </c>
       <c r="AD6" t="n">
-        <v>126719.7107107319</v>
+        <v>150820.1702434501</v>
       </c>
       <c r="AE6" t="n">
-        <v>173383.498673428</v>
+        <v>206358.8106433115</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.560254636027089e-06</v>
+        <v>6.632484354334955e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.302662037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>156836.0209053531</v>
+        <v>186664.2153819824</v>
       </c>
     </row>
     <row r="7">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.0289182263018</v>
+        <v>151.12937775902</v>
       </c>
       <c r="AB7" t="n">
-        <v>173.8065700375033</v>
+        <v>206.7818820073869</v>
       </c>
       <c r="AC7" t="n">
-        <v>157.2187149322256</v>
+        <v>187.046909408855</v>
       </c>
       <c r="AD7" t="n">
-        <v>127028.9182263018</v>
+        <v>151129.37775902</v>
       </c>
       <c r="AE7" t="n">
-        <v>173806.5700375033</v>
+        <v>206781.8820073869</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.553319728181796e-06</v>
+        <v>6.619565147007135e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.311342592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>157218.7149322256</v>
+        <v>187046.909408855</v>
       </c>
     </row>
   </sheetData>
@@ -8727,28 +8727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.2841141362252</v>
+        <v>184.4749724029597</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.9935991451661</v>
+        <v>252.4067957030127</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.2384205601515</v>
+        <v>228.3174453763533</v>
       </c>
       <c r="AD2" t="n">
-        <v>151284.1141362252</v>
+        <v>184474.9724029597</v>
       </c>
       <c r="AE2" t="n">
-        <v>206993.5991451661</v>
+        <v>252406.7957030127</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.110735150328383e-06</v>
+        <v>6.235460380827904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.326967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>187238.4205601515</v>
+        <v>228317.4453763533</v>
       </c>
     </row>
     <row r="3">
@@ -8833,28 +8833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.1113334211301</v>
+        <v>134.2670490533273</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.3956723896836</v>
+        <v>183.71009995883</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.7558047090325</v>
+        <v>166.1770658575555</v>
       </c>
       <c r="AD3" t="n">
-        <v>112111.3334211301</v>
+        <v>134267.0490533273</v>
       </c>
       <c r="AE3" t="n">
-        <v>153395.6723896836</v>
+        <v>183710.09995883</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.758814518490913e-06</v>
+        <v>7.534533760116669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>138755.8047090325</v>
+        <v>166177.0658575555</v>
       </c>
     </row>
     <row r="4">
@@ -8939,28 +8939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.7373362314546</v>
+        <v>130.8930518636518</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.7792205845213</v>
+        <v>179.0936481536677</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.5799405849226</v>
+        <v>162.0012017334456</v>
       </c>
       <c r="AD4" t="n">
-        <v>108737.3362314546</v>
+        <v>130893.0518636518</v>
       </c>
       <c r="AE4" t="n">
-        <v>148779.2205845212</v>
+        <v>179093.6481536677</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.843117525731567e-06</v>
+        <v>7.703518915146101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.311342592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>134579.9405849226</v>
+        <v>162001.2017334456</v>
       </c>
     </row>
   </sheetData>
@@ -9236,28 +9236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.3220513157738</v>
+        <v>145.1724574818179</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.0522300262381</v>
+        <v>198.631360883348</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.254262809748</v>
+        <v>179.6742625815635</v>
       </c>
       <c r="AD2" t="n">
-        <v>113322.0513157738</v>
+        <v>145172.4574818179</v>
       </c>
       <c r="AE2" t="n">
-        <v>155052.2300262381</v>
+        <v>198631.360883348</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.586010208419135e-06</v>
+        <v>7.502157617621376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>140254.262809748</v>
+        <v>179674.2625815635</v>
       </c>
     </row>
     <row r="3">
@@ -9342,28 +9342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.2835897432777</v>
+        <v>122.488836411001</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.5806758033158</v>
+        <v>167.5946298035382</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.3547306038846</v>
+        <v>151.5996335556752</v>
       </c>
       <c r="AD3" t="n">
-        <v>101283.5897432777</v>
+        <v>122488.836411001</v>
       </c>
       <c r="AE3" t="n">
-        <v>138580.6758033158</v>
+        <v>167594.6298035382</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.94156869855685e-06</v>
+        <v>8.246008214876799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.380787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>125354.7306038846</v>
+        <v>151599.6335556752</v>
       </c>
     </row>
   </sheetData>
@@ -16396,28 +16396,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.75511255111726</v>
+        <v>117.3712238114766</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.3846135266912</v>
+        <v>160.5924864717389</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.750011814711</v>
+        <v>145.2657649558907</v>
       </c>
       <c r="AD2" t="n">
-        <v>96755.11255111726</v>
+        <v>117371.2238114766</v>
       </c>
       <c r="AE2" t="n">
-        <v>132384.6135266912</v>
+        <v>160592.4864717388</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.940121854133072e-06</v>
+        <v>8.565256626546143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>119750.011814711</v>
+        <v>145265.7649558907</v>
       </c>
     </row>
     <row r="3">
@@ -16502,28 +16502,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.34041258540856</v>
+        <v>116.7859316451757</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.8172027383375</v>
+        <v>159.7916639085383</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.2367539156317</v>
+        <v>144.5413717741603</v>
       </c>
       <c r="AD3" t="n">
-        <v>96340.41258540856</v>
+        <v>116785.9316451757</v>
       </c>
       <c r="AE3" t="n">
-        <v>131817.2027383375</v>
+        <v>159791.6639085384</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.973385107576948e-06</v>
+        <v>8.637566141969324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.493634259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>119236.7539156316</v>
+        <v>144541.3717741603</v>
       </c>
     </row>
   </sheetData>
@@ -16799,28 +16799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.73100779940816</v>
+        <v>115.7558519900401</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.3516323419762</v>
+        <v>158.3822634804755</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.7201783079759</v>
+        <v>143.2664825448453</v>
       </c>
       <c r="AD2" t="n">
-        <v>96731.00779940817</v>
+        <v>115755.8519900401</v>
       </c>
       <c r="AE2" t="n">
-        <v>132351.6323419762</v>
+        <v>158382.2634804755</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.817821071327018e-06</v>
+        <v>9.080790360057833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.020254629629631</v>
       </c>
       <c r="AH2" t="n">
-        <v>119720.1783079759</v>
+        <v>143266.4825448453</v>
       </c>
     </row>
   </sheetData>
@@ -17096,28 +17096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.9736874160309</v>
+        <v>215.5434563194912</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.6161831181072</v>
+        <v>294.9160660423648</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.9840421328826</v>
+        <v>266.7696906166669</v>
       </c>
       <c r="AD2" t="n">
-        <v>180973.6874160309</v>
+        <v>215543.4563194911</v>
       </c>
       <c r="AE2" t="n">
-        <v>247616.1831181072</v>
+        <v>294916.0660423648</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721961764821069e-06</v>
+        <v>5.282179648403828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.888310185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>223984.0421328826</v>
+        <v>266769.6906166669</v>
       </c>
     </row>
     <row r="3">
@@ -17202,28 +17202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.3791314736023</v>
+        <v>163.863559522491</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.0222354865492</v>
+        <v>224.2053512886092</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.1274817840303</v>
+        <v>202.8075072358757</v>
       </c>
       <c r="AD3" t="n">
-        <v>129379.1314736023</v>
+        <v>163863.559522491</v>
       </c>
       <c r="AE3" t="n">
-        <v>177022.2354865492</v>
+        <v>224205.3512886092</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.443623130988245e-06</v>
+        <v>6.682619959753367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.655671296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>160127.4817840303</v>
+        <v>202807.5072358757</v>
       </c>
     </row>
     <row r="4">
@@ -17308,28 +17308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.7223223073556</v>
+        <v>140.6835835636419</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.0728749231727</v>
+        <v>192.4894855533619</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.7003058077493</v>
+        <v>174.1185592128932</v>
       </c>
       <c r="AD4" t="n">
-        <v>117722.3223073556</v>
+        <v>140683.5835636418</v>
       </c>
       <c r="AE4" t="n">
-        <v>161072.8749231727</v>
+        <v>192489.4855533619</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.692670529076027e-06</v>
+        <v>7.165915910001105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>145700.3058077493</v>
+        <v>174118.5592128932</v>
       </c>
     </row>
     <row r="5">
@@ -17414,28 +17414,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.7655414493726</v>
+        <v>138.7268027056589</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.3955210262029</v>
+        <v>189.8121316563922</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.2784748090157</v>
+        <v>171.6967282141596</v>
       </c>
       <c r="AD5" t="n">
-        <v>115765.5414493726</v>
+        <v>138726.8027056589</v>
       </c>
       <c r="AE5" t="n">
-        <v>158395.5210262029</v>
+        <v>189812.1316563922</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.731168736743067e-06</v>
+        <v>7.240624692345897e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>143278.4748090157</v>
+        <v>171696.7282141596</v>
       </c>
     </row>
   </sheetData>
@@ -17711,28 +17711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.9409945218493</v>
+        <v>285.8029764837785</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.5613659204641</v>
+        <v>391.0482411625492</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.4902460853586</v>
+        <v>353.7271458656483</v>
       </c>
       <c r="AD2" t="n">
-        <v>237940.9945218493</v>
+        <v>285802.9764837786</v>
       </c>
       <c r="AE2" t="n">
-        <v>325561.3659204642</v>
+        <v>391048.2411625492</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.308836158662357e-06</v>
+        <v>4.332282226712278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.689814814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>294490.2460853586</v>
+        <v>353727.1458656483</v>
       </c>
     </row>
     <row r="3">
@@ -17817,28 +17817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.9282106298599</v>
+        <v>188.9019615466596</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.6620539028027</v>
+        <v>258.463997554397</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.125184197066</v>
+        <v>233.7965563843796</v>
       </c>
       <c r="AD3" t="n">
-        <v>164928.2106298599</v>
+        <v>188901.9615466596</v>
       </c>
       <c r="AE3" t="n">
-        <v>225662.0539028027</v>
+        <v>258463.997554397</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.081864439277982e-06</v>
+        <v>5.78278648544551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.011574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>204125.184197066</v>
+        <v>233796.5563843796</v>
       </c>
     </row>
     <row r="4">
@@ -17923,28 +17923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.3532091475744</v>
+        <v>161.4122114103947</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.932720351551</v>
+        <v>220.8513086557946</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.9966852864816</v>
+        <v>199.7735697245075</v>
       </c>
       <c r="AD4" t="n">
-        <v>137353.2091475744</v>
+        <v>161412.2114103947</v>
       </c>
       <c r="AE4" t="n">
-        <v>187932.720351551</v>
+        <v>220851.3086557946</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.370215410959076e-06</v>
+        <v>6.323846008002954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>169996.6852864816</v>
+        <v>199773.5697245075</v>
       </c>
     </row>
     <row r="5">
@@ -18029,28 +18029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.056363451596</v>
+        <v>152.944773513824</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.5806100393201</v>
+        <v>209.2657865687168</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.7280044496595</v>
+        <v>189.2937536050343</v>
       </c>
       <c r="AD5" t="n">
-        <v>129056.363451596</v>
+        <v>152944.773513824</v>
       </c>
       <c r="AE5" t="n">
-        <v>176580.6100393201</v>
+        <v>209265.7865687168</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.516419282013226e-06</v>
+        <v>6.598181815534395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.392361111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>159728.0044496595</v>
+        <v>189293.7536050343</v>
       </c>
     </row>
     <row r="6">
@@ -18135,28 +18135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.6804557013199</v>
+        <v>148.5688657635479</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.5933000039703</v>
+        <v>203.278476533367</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.3121148808391</v>
+        <v>183.8778640362139</v>
       </c>
       <c r="AD6" t="n">
-        <v>124680.4557013199</v>
+        <v>148568.8657635479</v>
       </c>
       <c r="AE6" t="n">
-        <v>170593.3000039703</v>
+        <v>203278.476533367</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.591629670591282e-06</v>
+        <v>6.739306004220703e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.299768518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>154312.1148808391</v>
+        <v>183877.8640362139</v>
       </c>
     </row>
     <row r="7">
@@ -18241,28 +18241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.8999727886978</v>
+        <v>148.7883828509258</v>
       </c>
       <c r="AB7" t="n">
-        <v>170.893652967331</v>
+        <v>203.5788294967277</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.5838025789248</v>
+        <v>184.1495517342996</v>
       </c>
       <c r="AD7" t="n">
-        <v>124899.9727886978</v>
+        <v>148788.3828509258</v>
       </c>
       <c r="AE7" t="n">
-        <v>170893.652967331</v>
+        <v>203578.8294967277</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.590295206634964e-06</v>
+        <v>6.736802026422863e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.302662037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>154583.8025789248</v>
+        <v>184149.5517342996</v>
       </c>
     </row>
   </sheetData>
@@ -18538,28 +18538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.43153819593005</v>
+        <v>120.9121170856299</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.8371524681741</v>
+        <v>165.4372928626192</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.6365540572157</v>
+        <v>149.6481898245555</v>
       </c>
       <c r="AD2" t="n">
-        <v>93431.53819593004</v>
+        <v>120912.1170856299</v>
       </c>
       <c r="AE2" t="n">
-        <v>127837.1524681741</v>
+        <v>165437.2928626192</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.50671505440531e-06</v>
+        <v>8.770028228104518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.659722222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>115636.5540572157</v>
+        <v>149648.1898245554</v>
       </c>
     </row>
   </sheetData>
@@ -18835,28 +18835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.1454040365549</v>
+        <v>154.5019041050116</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.1247304776543</v>
+        <v>211.3963213393319</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.1745807619457</v>
+        <v>191.2209531273669</v>
       </c>
       <c r="AD2" t="n">
-        <v>122145.4040365549</v>
+        <v>154501.9041050116</v>
       </c>
       <c r="AE2" t="n">
-        <v>167124.7304776543</v>
+        <v>211396.3213393319</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.415283519783931e-06</v>
+        <v>7.033036857078051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.979745370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>151174.5807619457</v>
+        <v>191220.9531273669</v>
       </c>
     </row>
     <row r="3">
@@ -18941,28 +18941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.9260817136472</v>
+        <v>125.4687243163121</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.1962498956915</v>
+        <v>171.6718438989591</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.6252393793752</v>
+        <v>155.2877240602364</v>
       </c>
       <c r="AD3" t="n">
-        <v>103926.0817136471</v>
+        <v>125468.7243163121</v>
       </c>
       <c r="AE3" t="n">
-        <v>142196.2498956915</v>
+        <v>171671.8438989591</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.905809824785689e-06</v>
+        <v>8.043169562740489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.354745370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>128625.2393793752</v>
+        <v>155287.7240602364</v>
       </c>
     </row>
     <row r="4">
@@ -19047,28 +19047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.336864513008</v>
+        <v>125.879507115673</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.7583010442347</v>
+        <v>172.2338950475024</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.1336491551455</v>
+        <v>155.7961338360066</v>
       </c>
       <c r="AD4" t="n">
-        <v>104336.864513008</v>
+        <v>125879.507115673</v>
       </c>
       <c r="AE4" t="n">
-        <v>142758.3010442347</v>
+        <v>172233.8950475024</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.904810430348365e-06</v>
+        <v>8.041111526307571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.357638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>129133.6491551455</v>
+        <v>155796.1338360066</v>
       </c>
     </row>
   </sheetData>
@@ -19344,28 +19344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.4089652496876</v>
+        <v>194.0222950354156</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.478622998619</v>
+        <v>265.4698637268802</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.5318912598757</v>
+        <v>240.1337925221581</v>
       </c>
       <c r="AD2" t="n">
-        <v>160408.9652496875</v>
+        <v>194022.2950354156</v>
       </c>
       <c r="AE2" t="n">
-        <v>219478.622998619</v>
+        <v>265469.8637268802</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.979601939748324e-06</v>
+        <v>5.903140022466672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.497685185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>198531.8912598757</v>
+        <v>240133.7925221581</v>
       </c>
     </row>
     <row r="3">
@@ -19450,28 +19450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.8932722917344</v>
+        <v>140.3306356032606</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.3067762335807</v>
+        <v>192.0065665830035</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.9118839053746</v>
+        <v>173.6817293512846</v>
       </c>
       <c r="AD3" t="n">
-        <v>117893.2722917344</v>
+        <v>140330.6356032606</v>
       </c>
       <c r="AE3" t="n">
-        <v>161306.7762335807</v>
+        <v>192006.5665830035</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.64940816954111e-06</v>
+        <v>7.230149482905297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>145911.8839053746</v>
+        <v>173681.7293512846</v>
       </c>
     </row>
     <row r="4">
@@ -19556,28 +19556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.1421346330156</v>
+        <v>133.5794979445418</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.0695718497532</v>
+        <v>182.769362199176</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.5562653434389</v>
+        <v>165.3261107893489</v>
       </c>
       <c r="AD4" t="n">
-        <v>111142.1346330156</v>
+        <v>133579.4979445418</v>
       </c>
       <c r="AE4" t="n">
-        <v>152069.5718497532</v>
+        <v>182769.362199176</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.80302098918431e-06</v>
+        <v>7.534484760548566e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.305555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>137556.2653434389</v>
+        <v>165326.1107893489</v>
       </c>
     </row>
     <row r="5">
@@ -19662,28 +19662,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.3549674769157</v>
+        <v>133.792330788442</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.3607791362996</v>
+        <v>183.0605694857224</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.8196802152694</v>
+        <v>165.5895256611794</v>
       </c>
       <c r="AD5" t="n">
-        <v>111354.9674769157</v>
+        <v>133792.330788442</v>
       </c>
       <c r="AE5" t="n">
-        <v>152360.7791362996</v>
+        <v>183060.5694857224</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.805341595523798e-06</v>
+        <v>7.539082308958062e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.302662037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>137819.6802152694</v>
+        <v>165589.5256611794</v>
       </c>
     </row>
   </sheetData>
